--- a/dataset/happiness_index.xlsx
+++ b/dataset/happiness_index.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\231702_幸福感预测\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tianchi1\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07823437-DE48-4C74-A910-E96BEABA0F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$142</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="478">
   <si>
     <t>-1 = 不适用; -2 = 不知道; -3 = 拒绝回答; -8 = 无法回答;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1532,7 +1534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1883,20 +1885,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="2"/>
     <col min="3" max="3" width="43" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="79.453125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,9 +4313,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E142"/>
+  <autoFilter ref="E1:E142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EEF9A5-1A12-42D6-A0B7-41CA011FCE8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>